--- a/bdae/bdae_catalogo.xlsx
+++ b/bdae/bdae_catalogo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31200" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31200" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OBRAS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>titulo</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Alarcón, Pedro Antonio de</t>
   </si>
   <si>
-    <t>Valle_Inclán, José María del</t>
-  </si>
-  <si>
     <t>Pardo Bazán, Emilia</t>
   </si>
   <si>
@@ -106,6 +103,30 @@
   </si>
   <si>
     <t>Jeromín</t>
+  </si>
+  <si>
+    <t>Castro, Rosalía de</t>
+  </si>
+  <si>
+    <t>La hija del mar</t>
+  </si>
+  <si>
+    <t>Ruinas</t>
+  </si>
+  <si>
+    <t>El capitán veneno</t>
+  </si>
+  <si>
+    <t>El escándalo</t>
+  </si>
+  <si>
+    <t>El fin de norma</t>
+  </si>
+  <si>
+    <t>El sombrero de tres picos</t>
+  </si>
+  <si>
+    <t>Valle-Inclán, José María del</t>
   </si>
 </sst>
 </file>
@@ -423,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -470,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -484,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -498,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -512,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -526,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -540,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -554,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -568,13 +589,97 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +714,9 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -617,7 +725,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,12 +738,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -643,7 +754,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,12 +767,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +782,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/bdae/bdae_catalogo.xlsx
+++ b/bdae/bdae_catalogo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31200" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31200" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OBRAS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>titulo</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Valle-Inclán, José María del</t>
+  </si>
+  <si>
+    <t>La Regenta</t>
+  </si>
+  <si>
+    <t>Su único hijo</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Rodó, José Enrique</t>
+  </si>
+  <si>
+    <t>Rodó, José nrique</t>
+  </si>
+  <si>
+    <t>El señor de Bembibre</t>
   </si>
 </sst>
 </file>
@@ -444,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -680,6 +698,62 @@
       </c>
       <c r="D16">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +796,9 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -783,6 +860,22 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
